--- a/biology/Zoologie/Anisota_virginiensis/Anisota_virginiensis.xlsx
+++ b/biology/Zoologie/Anisota_virginiensis/Anisota_virginiensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anisota virginiensis, ou Anisote rose du chêne[1], est une espèce de lépidoptères (papillons) appartenant à la famille des Saturniidae, à la sous-famille des Ceratocampinae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anisota virginiensis, ou Anisote rose du chêne, est une espèce de lépidoptères (papillons) appartenant à la famille des Saturniidae, à la sous-famille des Ceratocampinae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ailes de la femelle sont rose violacé, mélangé avec de l'ocre-jaune, à écailles minces, et elles sont translucides. Les ailes du mâle sont brun violacé avec un grand espace transparent dans le milieu[2]. Ce papillon a une envergure de 4,2 à 6,6 cm, la femelle étant plus grande que le mâle.
-La chenille mesure à maturité environ 5 cm. Elle est rayée de bandes longitudinales de couleur gris-brun et rouge, agrémentées de points noirs et de petites taches blanches. Elle porte de courtes épines noires surtout présentes sur le dos et deux cornes noires d’environ 5 mm de long derrière la tête[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ailes de la femelle sont rose violacé, mélangé avec de l'ocre-jaune, à écailles minces, et elles sont translucides. Les ailes du mâle sont brun violacé avec un grand espace transparent dans le milieu. Ce papillon a une envergure de 4,2 à 6,6 cm, la femelle étant plus grande que le mâle.
+La chenille mesure à maturité environ 5 cm. Elle est rayée de bandes longitudinales de couleur gris-brun et rouge, agrémentées de points noirs et de petites taches blanches. Elle porte de courtes épines noires surtout présentes sur le dos et deux cornes noires d’environ 5 mm de long derrière la tête.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le trouve au Canada depuis la Nouvelle-Écosse jusqu'au sud-est du Manitoba[3].
-On le trouve dans les forêts de feuillus, les banlieues, et les rues des villes bordées d'arbres[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le trouve au Canada depuis la Nouvelle-Écosse jusqu'au sud-est du Manitoba.
+On le trouve dans les forêts de feuillus, les banlieues, et les rues des villes bordées d'arbres.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Rôle écologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est considérée comme nuisible à cause des dégâts qu'elle fait subir à la végétation en consommant tout le limbe des feuilles. En cas de prolifération, on peut répandre un spray à base d'arsenic pour la détruire[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est considérée comme nuisible à cause des dégâts qu'elle fait subir à la végétation en consommant tout le limbe des feuilles. En cas de prolifération, on peut répandre un spray à base d'arsenic pour la détruire.
 </t>
         </is>
       </c>
@@ -606,13 +624,15 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Phalaena virginiensis Drury, 1773
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phalaena virginiensis Drury, 1773
 Phalaena pellucida Smith, 1797
 Anisota sinulis Riotte, 1970
-Anisota virginiensis pellucida (Smith, 1797) [6]
-Anisota virginiensis discolor Ferguson, 1971 [6]</t>
+Anisota virginiensis pellucida (Smith, 1797) 
+Anisota virginiensis discolor Ferguson, 1971 </t>
         </is>
       </c>
     </row>
